--- a/test_files/commit_test/commit_test2.xlsx
+++ b/test_files/commit_test/commit_test2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -372,12 +372,13 @@
   <dimension ref="A1:CJ6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
-      <selection activeCell="BN3" sqref="BN3"/>
+      <selection activeCell="BT5" sqref="BT5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="66" max="66" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:88">
@@ -397,6 +398,17 @@
       </c>
       <c r="BN2" t="s">
         <v>6</v>
+      </c>
+      <c r="BO2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:88">
+      <c r="BN3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BO3">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:88">
